--- a/medicine/Enfance/Ulf_Stark/Ulf_Stark.xlsx
+++ b/medicine/Enfance/Ulf_Stark/Ulf_Stark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulf Gottfrid Stark, né le 12 juillet 1944 à Stureby (un quartier de Stockholm, en Suède) et mort le 13 juin 2017 à Stockholm (Suède)[1], est un écrivain et scénariste suédois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulf Gottfrid Stark, né le 12 juillet 1944 à Stureby (un quartier de Stockholm, en Suède) et mort le 13 juin 2017 à Stockholm (Suède), est un écrivain et scénariste suédois.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulf Stark a été à plusieurs reprises l'écrivain sélectionné pour représenter son pays, la Suède, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Il a été finaliste en 2000[2], et sélectionné une dernière fois, à titre posthume, en 2018[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulf Stark a été à plusieurs reprises l'écrivain sélectionné pour représenter son pays, la Suède, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Il a été finaliste en 2000, et sélectionné une dernière fois, à titre posthume, en 2018.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Œuvre publiée en traduction française.
  Les casse-pieds et les fêlés, (Dårfinkar och dönickar), trad. du suédois par Agneta Segol, Flammarion, 1994
@@ -578,7 +594,9 @@
           <t>Filmographie (scénario)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1988 : Dårfinkar &amp; dönickar (série TV)
 1989 : Hunden som log (The Dog That Smiled)
@@ -625,10 +643,12 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Plusieurs sélections pour le Prix Hans-Christian-Andersen, prix international danois, dans la catégorie Auteur. Il a été finaliste en 2000[2], et sélectionné une dernière fois, à titre posthume, en 2018[2].
- Prix Libbylit 2019[3] délivré par l' IBBY, catégorie Roman junior, pour La Cavale, illustrations de Kitty Crowther</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Plusieurs sélections pour le Prix Hans-Christian-Andersen, prix international danois, dans la catégorie Auteur. Il a été finaliste en 2000, et sélectionné une dernière fois, à titre posthume, en 2018.
+ Prix Libbylit 2019 délivré par l' IBBY, catégorie Roman junior, pour La Cavale, illustrations de Kitty Crowther</t>
         </is>
       </c>
     </row>
